--- a/docs/StructureDefinition-VAServiceEpisode5.xlsx
+++ b/docs/StructureDefinition-VAServiceEpisode5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="507">
   <si>
     <t>Path</t>
   </si>
@@ -335,247 +335,244 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1054,6 +1051,9 @@
   </si>
   <si>
     <t>Observation.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0136</t>
   </si>
   <si>
     <t>Observation.value[x].coding.version</t>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2788,15 +2788,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2833,14 +2835,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2870,7 +2874,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2885,7 +2889,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2904,16 +2908,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2963,7 +2967,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3001,7 +3005,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3024,17 +3028,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3083,7 +3087,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3101,19 +3105,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3121,11 +3125,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3144,17 +3148,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3203,7 +3207,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3221,16 +3225,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3241,7 +3245,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3267,48 +3271,48 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>139</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>46</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>57</v>
@@ -3343,19 +3347,19 @@
         <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3363,7 +3367,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3386,19 +3390,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3423,14 +3427,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3474,10 +3478,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3485,11 +3489,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3508,17 +3512,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3543,14 +3547,14 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>46</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>57</v>
@@ -3585,27 +3589,27 @@
         <v>46</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3628,13 +3632,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3685,7 +3689,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3712,7 +3716,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3723,11 +3727,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3746,16 +3750,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3793,19 +3797,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3832,7 +3836,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3843,7 +3847,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3866,19 +3870,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3927,7 +3931,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3951,10 +3955,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3965,7 +3969,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3988,13 +3992,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4045,7 +4049,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4072,7 +4076,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4083,11 +4087,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4106,16 +4110,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4153,19 +4157,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4192,7 +4196,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4203,7 +4207,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4229,65 +4233,65 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4311,10 +4315,10 @@
         <v>46</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4325,7 +4329,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4348,16 +4352,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4407,7 +4411,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4431,10 +4435,10 @@
         <v>46</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4445,7 +4449,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4471,63 +4475,63 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4551,10 +4555,10 @@
         <v>46</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4565,7 +4569,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4588,66 +4592,66 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4671,10 +4675,10 @@
         <v>46</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4685,7 +4689,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4708,19 +4712,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4769,7 +4773,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4793,10 +4797,10 @@
         <v>46</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4807,7 +4811,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4830,19 +4834,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4891,7 +4895,7 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4915,10 +4919,10 @@
         <v>46</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4929,7 +4933,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4952,19 +4956,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5013,7 +5017,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5031,19 +5035,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5051,11 +5055,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5074,19 +5078,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5135,7 +5139,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5153,19 +5157,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5173,11 +5177,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5196,19 +5200,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5245,17 +5249,17 @@
         <v>46</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5273,19 +5277,19 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5293,13 +5297,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5318,19 +5322,19 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>46</v>
@@ -5379,7 +5383,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5397,19 +5401,19 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5417,7 +5421,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5440,13 +5444,13 @@
         <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5497,7 +5501,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5524,7 +5528,7 @@
         <v>46</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>46</v>
@@ -5535,11 +5539,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5558,16 +5562,16 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5605,19 +5609,19 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5644,7 +5648,7 @@
         <v>46</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>46</v>
@@ -5655,14 +5659,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>44</v>
@@ -5680,16 +5684,16 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5739,7 +5743,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5748,25 +5752,25 @@
         <v>57</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>46</v>
@@ -5777,14 +5781,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>44</v>
@@ -5802,68 +5806,68 @@
         <v>58</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="L34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5872,25 +5876,25 @@
         <v>57</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5901,7 +5905,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5924,16 +5928,16 @@
         <v>58</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5983,7 +5987,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6007,13 +6011,13 @@
         <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
@@ -6021,7 +6025,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6044,17 +6048,17 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6103,7 +6107,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6121,19 +6125,19 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>46</v>
@@ -6141,7 +6145,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6164,19 +6168,19 @@
         <v>58</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6213,17 +6217,17 @@
         <v>46</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6232,39 +6236,39 @@
         <v>57</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AI37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>46</v>
@@ -6286,19 +6290,19 @@
         <v>58</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6347,7 +6351,7 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6356,36 +6360,36 @@
         <v>57</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6408,13 +6412,13 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6465,7 +6469,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6492,7 +6496,7 @@
         <v>46</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6503,11 +6507,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6526,16 +6530,16 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6573,19 +6577,19 @@
         <v>46</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB40" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6612,7 +6616,7 @@
         <v>46</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6623,7 +6627,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6646,19 +6650,19 @@
         <v>58</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6707,7 +6711,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6731,10 +6735,10 @@
         <v>46</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6745,7 +6749,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6768,13 +6772,13 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6825,7 +6829,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6852,7 +6856,7 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6863,11 +6867,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6886,16 +6890,16 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6933,19 +6937,19 @@
         <v>46</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6972,7 +6976,7 @@
         <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -6981,9 +6985,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6997,7 +7001,7 @@
         <v>57</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>46</v>
@@ -7009,23 +7013,23 @@
         <v>70</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>46</v>
@@ -7067,7 +7071,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7091,10 +7095,10 @@
         <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -7128,16 +7132,16 @@
         <v>58</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7187,7 +7191,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7211,10 +7215,10 @@
         <v>46</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -7253,14 +7257,14 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>336</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7309,7 +7313,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7333,10 +7337,10 @@
         <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7370,17 +7374,17 @@
         <v>58</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
@@ -7429,7 +7433,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7453,10 +7457,10 @@
         <v>46</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7490,19 +7494,19 @@
         <v>58</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7551,7 +7555,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7575,10 +7579,10 @@
         <v>46</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7612,19 +7616,19 @@
         <v>58</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
@@ -7673,7 +7677,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7697,10 +7701,10 @@
         <v>46</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7734,7 +7738,7 @@
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>342</v>
@@ -7813,7 +7817,7 @@
         <v>46</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>46</v>
@@ -7856,7 +7860,7 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>352</v>
@@ -7976,7 +7980,7 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>362</v>
@@ -8096,7 +8100,7 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>369</v>
@@ -8131,7 +8135,7 @@
         <v>46</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>372</v>
@@ -8216,7 +8220,7 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>379</v>
@@ -8253,7 +8257,7 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X54" t="s" s="2">
         <v>383</v>
@@ -8700,13 +8704,13 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8757,7 +8761,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8784,7 +8788,7 @@
         <v>46</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>46</v>
@@ -8799,7 +8803,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8818,16 +8822,16 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8877,7 +8881,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8904,7 +8908,7 @@
         <v>46</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -8938,16 +8942,16 @@
         <v>58</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9294,7 +9298,7 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>432</v>
@@ -9416,7 +9420,7 @@
         <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>441</v>
@@ -9453,7 +9457,7 @@
         <v>46</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>445</v>
@@ -9658,7 +9662,7 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>454</v>
@@ -9898,13 +9902,13 @@
         <v>46</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9955,7 +9959,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -9982,7 +9986,7 @@
         <v>46</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -9997,7 +10001,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10016,16 +10020,16 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10075,7 +10079,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10102,7 +10106,7 @@
         <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10136,16 +10140,16 @@
         <v>58</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10293,7 +10297,7 @@
         <v>46</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>473</v>
@@ -10618,13 +10622,13 @@
         <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10675,7 +10679,7 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
@@ -10702,7 +10706,7 @@
         <v>46</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10717,7 +10721,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10736,16 +10740,16 @@
         <v>46</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10795,7 +10799,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10822,7 +10826,7 @@
         <v>46</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10856,16 +10860,16 @@
         <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>418</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10976,7 +10980,7 @@
         <v>58</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>492</v>
@@ -10986,7 +10990,7 @@
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -11011,13 +11015,13 @@
         <v>46</v>
       </c>
       <c r="W77" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>46</v>
@@ -11059,13 +11063,13 @@
         <v>494</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>46</v>
@@ -11102,13 +11106,13 @@
         <v>497</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>498</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
@@ -11181,16 +11185,16 @@
         <v>499</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN78" t="s" s="2">
+      <c r="AO78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP78" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11218,7 +11222,7 @@
         <v>46</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>501</v>
@@ -11340,7 +11344,7 @@
         <v>46</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>352</v>
